--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,118 @@
   </si>
   <si>
     <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖完下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工下架（禁售）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大客户可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.products_quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +202,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,12 +228,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,74 +601,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>products.products_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.master_categories_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,21 +288,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,35 +613,37 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -640,191 +651,214 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="1" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -16,15 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +176,30 @@
   </si>
   <si>
     <t>products.master_categories_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未审核，1：已审核，2：自己可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,51 +646,51 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -679,7 +698,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -687,7 +706,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -695,41 +714,41 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -737,19 +756,19 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -757,7 +776,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -765,7 +784,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -773,7 +792,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -781,7 +800,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -789,7 +808,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -797,68 +816,88 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,6 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,12 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +632,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,10 +683,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -695,24 +695,24 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -731,10 +731,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -745,26 +745,26 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -773,48 +773,48 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
@@ -831,10 +831,10 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -843,16 +843,16 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -861,10 +861,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="2"/>
@@ -879,25 +879,25 @@
       <c r="D24" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,22 @@
   </si>
   <si>
     <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently Viewed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史浏览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$_SESSION['recent_products']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +648,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,12 +887,26 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,22 @@
   </si>
   <si>
     <t>$_SESSION['recent_products']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_discount_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products_description_{$lang}.products_description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,12 +264,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -320,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +366,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
@@ -654,9 +683,9 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -844,7 +873,9 @@
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -908,14 +939,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,26 @@
   </si>
   <si>
     <t>products_description_{$lang}.products_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多区定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products.products_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球、美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Questions &amp; Answers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,6 +377,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,13 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
@@ -728,251 +748,276 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zencart/docs/modules/product_info/data.xlsx
+++ b/zencart/docs/modules/product_info/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>products.products_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秒杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖完下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工下架（禁售）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,11 +235,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球、美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer Questions &amp; Answers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returning soon(缺货)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.屏蔽加购物车模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold out(卖完下架)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球、北美、南美、欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录价格，原价，参考价，标价，并非实际售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，结束时间，折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -358,11 +382,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +430,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,318 +749,376 @@
     <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="13"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
